--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F423"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10015,7 +10015,9 @@
       <c r="D422" t="n">
         <v>381.9888888888889</v>
       </c>
-      <c r="E422" t="inlineStr"/>
+      <c r="E422" t="n">
+        <v>399.3233333333333</v>
+      </c>
       <c r="F422" t="inlineStr">
         <is>
           <t>L9</t>
@@ -10041,6 +10043,72 @@
       <c r="F423" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="n">
+        <v>369.3030769230769</v>
+      </c>
+      <c r="D424" t="n">
+        <v>369.0388888888889</v>
+      </c>
+      <c r="E424" t="n">
+        <v>390.6133333333333</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="n">
+        <v>379.7923076923077</v>
+      </c>
+      <c r="D425" t="n">
+        <v>375.7844444444444</v>
+      </c>
+      <c r="E425" t="n">
+        <v>395.5866666666667</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>480.5446153846154</v>
+      </c>
+      <c r="C426" t="n">
+        <v>372.5446153846154</v>
+      </c>
+      <c r="D426" t="n">
+        <v>380.4066666666667</v>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B475"/>
+  <dimension ref="A1:B478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14813,6 +14881,36 @@
       </c>
       <c r="B475" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -14981,28 +15079,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>5.896879598479078</v>
+        <v>5.942376579443623</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5382216131537852</v>
+        <v>0.5425599444182234</v>
       </c>
       <c r="M2" t="n">
-        <v>30.39176080701731</v>
+        <v>30.60419897256806</v>
       </c>
       <c r="N2" t="n">
-        <v>1550.843552113143</v>
+        <v>1557.342908805319</v>
       </c>
       <c r="O2" t="n">
-        <v>39.3807510354125</v>
+        <v>39.46318422029979</v>
       </c>
       <c r="P2" t="n">
-        <v>270.3024816410157</v>
+        <v>269.904042537511</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15058,28 +15156,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.359468793238342</v>
+        <v>3.368797636465943</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K3" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7336424543995399</v>
+        <v>0.7377588044188208</v>
       </c>
       <c r="M3" t="n">
-        <v>11.28582984472763</v>
+        <v>11.22844926223277</v>
       </c>
       <c r="N3" t="n">
-        <v>220.5552323545731</v>
+        <v>219.2269738045346</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8511020585872</v>
+        <v>14.8063153351715</v>
       </c>
       <c r="P3" t="n">
-        <v>282.8371064237501</v>
+        <v>282.7487002378878</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15135,28 +15233,28 @@
         <v>0.1566</v>
       </c>
       <c r="I4" t="n">
-        <v>3.594968217203511</v>
+        <v>3.593962285310167</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K4" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7881293409855052</v>
+        <v>0.7909420222272512</v>
       </c>
       <c r="M4" t="n">
-        <v>10.91610796862016</v>
+        <v>10.85860489826245</v>
       </c>
       <c r="N4" t="n">
-        <v>189.8509803584438</v>
+        <v>188.4722979524902</v>
       </c>
       <c r="O4" t="n">
-        <v>13.77864218123266</v>
+        <v>13.72852133161071</v>
       </c>
       <c r="P4" t="n">
-        <v>284.5820860835038</v>
+        <v>284.5912924595203</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15212,28 +15310,28 @@
         <v>0.0895</v>
       </c>
       <c r="I5" t="n">
-        <v>4.300653765613991</v>
+        <v>4.285333285485464</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6540751582000345</v>
+        <v>0.6563609993564621</v>
       </c>
       <c r="M5" t="n">
-        <v>17.78655404290993</v>
+        <v>17.68244780303872</v>
       </c>
       <c r="N5" t="n">
-        <v>529.4674497387374</v>
+        <v>525.83586913951</v>
       </c>
       <c r="O5" t="n">
-        <v>23.01015970693679</v>
+        <v>22.93111138038255</v>
       </c>
       <c r="P5" t="n">
-        <v>295.5856379630909</v>
+        <v>295.7284365537494</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15270,7 +15368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F423"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27675,7 +27773,11 @@
           <t>-41.869383412843895,174.16058184759217</t>
         </is>
       </c>
-      <c r="E422" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-41.87002981619181,174.16070760037462</t>
+        </is>
+      </c>
       <c r="F422" t="inlineStr">
         <is>
           <t>L9</t>
@@ -27707,6 +27809,90 @@
       <c r="F423" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-41.868766802136186,174.16066438454126</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-41.86936258120866,174.16042832572163</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-41.87002290446774,174.16060306301296</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-41.86880198224849,174.16078167422668</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-41.869373432273264,174.1605082940732</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-41.87002685101303,174.1606627529238</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-41.868669137669094,174.16226703020982</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-41.86877767403193,174.16070063113486</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-41.86938086765991,174.160563090389</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -14924,7 +14924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15015,35 +15015,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15102,27 +15107,28 @@
       <c r="P2" t="n">
         <v>269.904042537511</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.15715796595308 -41.86663315111237, 174.16670522491842 -41.87043748740201)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.1571579659531</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.86663315111237</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.1667052249184</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.87043748740201</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.1619315954358</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.86853531925719</v>
       </c>
     </row>
@@ -15179,27 +15185,28 @@
       <c r="P3" t="n">
         <v>282.7487002378878</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.156534949528 -41.867528109112605, 174.1665769943286 -41.87054004392195)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.156534949528</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.86752810911261</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.1665769943286</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.87054004392195</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.1615559719283</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.86903407651728</v>
       </c>
     </row>
@@ -15256,27 +15263,28 @@
       <c r="P4" t="n">
         <v>284.5912924595203</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.15605342053448 -41.86876885086499, 174.16670126002634 -41.87021358722534)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.1560534205345</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.86876885086499</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.1667012600263</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.87021358722534</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.1613773402804</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.86949121904516</v>
       </c>
     </row>
@@ -15333,27 +15341,28 @@
       <c r="P5" t="n">
         <v>295.7284365537494</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.15591494537478 -41.86971283944111, 174.1666951080577 -41.870425532229135)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.1559149453748</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.86971283944111</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.1666951080577</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.87042553222913</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.1613050267162</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.87006918583512</v>
       </c>
     </row>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:F429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10109,6 +10109,72 @@
       <c r="F426" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>497.4030769230769</v>
+      </c>
+      <c r="C427" t="n">
+        <v>374.3630769230769</v>
+      </c>
+      <c r="D427" t="n">
+        <v>384.5477777777778</v>
+      </c>
+      <c r="E427" t="n">
+        <v>457.8766666666667</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:07:03+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="n">
+        <v>353.4776923076923</v>
+      </c>
+      <c r="D428" t="n">
+        <v>364.24</v>
+      </c>
+      <c r="E428" t="n">
+        <v>450.71</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>491.1338461538462</v>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="n">
+        <v>452.86</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B478"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14911,6 +14977,46 @@
       </c>
       <c r="B478" t="n">
         <v>-0.3</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -15084,28 +15190,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>5.942376579443623</v>
+        <v>6.050104465912518</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5425599444182234</v>
+        <v>0.5509985356847973</v>
       </c>
       <c r="M2" t="n">
-        <v>30.60419897256806</v>
+        <v>31.13582996626599</v>
       </c>
       <c r="N2" t="n">
-        <v>1557.342908805319</v>
+        <v>1579.956317689697</v>
       </c>
       <c r="O2" t="n">
-        <v>39.46318422029979</v>
+        <v>39.74866435101559</v>
       </c>
       <c r="P2" t="n">
-        <v>269.904042537511</v>
+        <v>268.9560042273877</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15162,28 +15268,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.368797636465943</v>
+        <v>3.363812032261696</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K3" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7377588044188208</v>
+        <v>0.7388269393325213</v>
       </c>
       <c r="M3" t="n">
-        <v>11.22844926223277</v>
+        <v>11.23242389767546</v>
       </c>
       <c r="N3" t="n">
-        <v>219.2269738045346</v>
+        <v>218.7714792124161</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8063153351715</v>
+        <v>14.79092556983558</v>
       </c>
       <c r="P3" t="n">
-        <v>282.7487002378878</v>
+        <v>282.7963751690642</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15240,28 +15346,28 @@
         <v>0.1566</v>
       </c>
       <c r="I4" t="n">
-        <v>3.593962285310167</v>
+        <v>3.591962183886056</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K4" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7909420222272512</v>
+        <v>0.7922618975765391</v>
       </c>
       <c r="M4" t="n">
-        <v>10.85860489826245</v>
+        <v>10.85790238880337</v>
       </c>
       <c r="N4" t="n">
-        <v>188.4722979524902</v>
+        <v>188.0371920175425</v>
       </c>
       <c r="O4" t="n">
-        <v>13.72852133161071</v>
+        <v>13.71266538706252</v>
       </c>
       <c r="P4" t="n">
-        <v>284.5912924595203</v>
+        <v>284.6101259113175</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15318,28 +15424,28 @@
         <v>0.0895</v>
       </c>
       <c r="I5" t="n">
-        <v>4.285333285485464</v>
+        <v>4.366661941628852</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6563609993564621</v>
+        <v>0.6609532372079757</v>
       </c>
       <c r="M5" t="n">
-        <v>17.68244780303872</v>
+        <v>18.0991252920898</v>
       </c>
       <c r="N5" t="n">
-        <v>525.83586913951</v>
+        <v>540.667210460139</v>
       </c>
       <c r="O5" t="n">
-        <v>22.93111138038255</v>
+        <v>23.25225172881412</v>
       </c>
       <c r="P5" t="n">
-        <v>295.7284365537494</v>
+        <v>294.9619186284104</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15377,7 +15483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:F429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27905,6 +28011,90 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-41.86874055991502,174.16244627217358</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-41.86878377302102,174.1607209650147</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-41.869387529100514,174.16061218315625</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-41.870076278063216,174.16141035761848</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:07:03+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-41.86871372472423,174.16048742667698</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-41.869354861565256,174.16037143505864</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-41.87007059156923,174.16132434321887</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-41.86871399984143,174.16237961662446</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-41.87007229752422,174.16135014753732</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F429"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10173,6 +10173,54 @@
         <v>452.86</v>
       </c>
       <c r="F429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>468.7069230769231</v>
+      </c>
+      <c r="C430" t="n">
+        <v>375.0669230769231</v>
+      </c>
+      <c r="D430" t="n">
+        <v>383.5433333333333</v>
+      </c>
+      <c r="E430" t="n">
+        <v>444.85</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>476.1415384615385</v>
+      </c>
+      <c r="C431" t="n">
+        <v>376.3615384615384</v>
+      </c>
+      <c r="D431" t="n">
+        <v>383.7888888888889</v>
+      </c>
+      <c r="E431" t="n">
+        <v>444.4533333333333</v>
+      </c>
+      <c r="F431" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10189,7 +10237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15017,6 +15065,36 @@
       </c>
       <c r="B482" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -15190,28 +15268,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>6.050104465912518</v>
+        <v>6.120523723191917</v>
       </c>
       <c r="J2" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K2" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5509985356847973</v>
+        <v>0.5591070698715636</v>
       </c>
       <c r="M2" t="n">
-        <v>31.13582996626599</v>
+        <v>31.41096107021982</v>
       </c>
       <c r="N2" t="n">
-        <v>1579.956317689697</v>
+        <v>1584.26580577552</v>
       </c>
       <c r="O2" t="n">
-        <v>39.74866435101559</v>
+        <v>39.80283665488579</v>
       </c>
       <c r="P2" t="n">
-        <v>268.9560042273877</v>
+        <v>268.332836610473</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15268,28 +15346,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.363812032261696</v>
+        <v>3.370686594713255</v>
       </c>
       <c r="J3" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K3" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7388269393325213</v>
+        <v>0.7416872271174888</v>
       </c>
       <c r="M3" t="n">
-        <v>11.23242389767546</v>
+        <v>11.19684311222852</v>
       </c>
       <c r="N3" t="n">
-        <v>218.7714792124161</v>
+        <v>217.8500315605737</v>
       </c>
       <c r="O3" t="n">
-        <v>14.79092556983558</v>
+        <v>14.75974361432385</v>
       </c>
       <c r="P3" t="n">
-        <v>282.7963751690642</v>
+        <v>282.7302136738145</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15346,28 +15424,28 @@
         <v>0.1566</v>
       </c>
       <c r="I4" t="n">
-        <v>3.591962183886056</v>
+        <v>3.599336425698364</v>
       </c>
       <c r="J4" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K4" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7922618975765391</v>
+        <v>0.7947424353035601</v>
       </c>
       <c r="M4" t="n">
-        <v>10.85790238880337</v>
+        <v>10.82569526447894</v>
       </c>
       <c r="N4" t="n">
-        <v>188.0371920175425</v>
+        <v>187.2712745863379</v>
       </c>
       <c r="O4" t="n">
-        <v>13.71266538706252</v>
+        <v>13.68470951779167</v>
       </c>
       <c r="P4" t="n">
-        <v>284.6101259113175</v>
+        <v>284.5404844154275</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15424,28 +15502,28 @@
         <v>0.0895</v>
       </c>
       <c r="I5" t="n">
-        <v>4.366661941628852</v>
+        <v>4.40829487533327</v>
       </c>
       <c r="J5" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K5" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6609532372079757</v>
+        <v>0.6648707459444896</v>
       </c>
       <c r="M5" t="n">
-        <v>18.0991252920898</v>
+        <v>18.28875660774361</v>
       </c>
       <c r="N5" t="n">
-        <v>540.667210460139</v>
+        <v>545.3047738255276</v>
       </c>
       <c r="O5" t="n">
-        <v>23.25225172881412</v>
+        <v>23.35176168569574</v>
       </c>
       <c r="P5" t="n">
-        <v>294.9619186284104</v>
+        <v>294.5667582616113</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15483,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F429"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28095,6 +28173,70 @@
         </is>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-41.86861898615036,174.16214117013442</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-41.86878613366939,174.1607288353626</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-41.869385913341176,174.16060027549193</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-41.87006594182054,174.1612540114549</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-41.868650483627896,174.16222021602945</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-41.86879047571296,174.16074331164333</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-41.86938630834441,174.16060318654695</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-41.8700656270749,174.16124925065893</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F431"/>
+  <dimension ref="A1:F432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10221,6 +10221,28 @@
         <v>444.4533333333333</v>
       </c>
       <c r="F431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>490.0323076923077</v>
+      </c>
+      <c r="C432" t="n">
+        <v>379.6323076923077</v>
+      </c>
+      <c r="D432" t="n">
+        <v>385.8911111111111</v>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10237,7 +10259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15095,6 +15117,16 @@
       </c>
       <c r="B485" t="n">
         <v>-0.02</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -15268,28 +15300,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>6.120523723191917</v>
+        <v>6.167134442901714</v>
       </c>
       <c r="J2" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5591070698715636</v>
+        <v>0.5631419798633691</v>
       </c>
       <c r="M2" t="n">
-        <v>31.41096107021982</v>
+        <v>31.62212230678935</v>
       </c>
       <c r="N2" t="n">
-        <v>1584.26580577552</v>
+        <v>1592.006358635515</v>
       </c>
       <c r="O2" t="n">
-        <v>39.80283665488579</v>
+        <v>39.89995436884001</v>
       </c>
       <c r="P2" t="n">
-        <v>268.332836610473</v>
+        <v>267.9195097421664</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15346,28 +15378,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.370686594713255</v>
+        <v>3.376011121992804</v>
       </c>
       <c r="J3" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K3" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7416872271174888</v>
+        <v>0.7431779721966132</v>
       </c>
       <c r="M3" t="n">
-        <v>11.19684311222852</v>
+        <v>11.18554001655995</v>
       </c>
       <c r="N3" t="n">
-        <v>217.8500315605737</v>
+        <v>217.5489893842147</v>
       </c>
       <c r="O3" t="n">
-        <v>14.75974361432385</v>
+        <v>14.74954200591377</v>
       </c>
       <c r="P3" t="n">
-        <v>282.7302136738145</v>
+        <v>282.6788425693749</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15424,28 +15456,28 @@
         <v>0.1566</v>
       </c>
       <c r="I4" t="n">
-        <v>3.599336425698364</v>
+        <v>3.604037851819112</v>
       </c>
       <c r="J4" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7947424353035601</v>
+        <v>0.7959884998917518</v>
       </c>
       <c r="M4" t="n">
-        <v>10.82569526447894</v>
+        <v>10.81349195851701</v>
       </c>
       <c r="N4" t="n">
-        <v>187.2712745863379</v>
+        <v>186.9712208239547</v>
       </c>
       <c r="O4" t="n">
-        <v>13.68470951779167</v>
+        <v>13.67374201979673</v>
       </c>
       <c r="P4" t="n">
-        <v>284.5404844154275</v>
+        <v>284.4959721031896</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15505,7 +15537,7 @@
         <v>4.40829487533327</v>
       </c>
       <c r="J5" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K5" t="n">
         <v>364</v>
@@ -15561,7 +15593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F431"/>
+  <dimension ref="A1:F432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28237,6 +28269,34 @@
         </is>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-41.86870933308577,174.16236790488207</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-41.868801445621095,174.16077988511938</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-41.86938968999798,174.16062810834094</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F432"/>
+  <dimension ref="A1:F433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10245,6 +10245,26 @@
       <c r="F432" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>477.5276923076924</v>
+      </c>
+      <c r="C433" t="n">
+        <v>379.3576923076923</v>
+      </c>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B486"/>
+  <dimension ref="A1:B487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15127,6 +15147,16 @@
       </c>
       <c r="B486" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15300,28 +15330,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>6.167134442901714</v>
+        <v>6.203396243790984</v>
       </c>
       <c r="J2" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5631419798633691</v>
+        <v>0.5671236763889183</v>
       </c>
       <c r="M2" t="n">
-        <v>31.62212230678935</v>
+        <v>31.7615271816885</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.006358635515</v>
+        <v>1594.714163945418</v>
       </c>
       <c r="O2" t="n">
-        <v>39.89995436884001</v>
+        <v>39.93387238855528</v>
       </c>
       <c r="P2" t="n">
-        <v>267.9195097421664</v>
+        <v>267.5960800999351</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15378,28 +15408,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.376011121992804</v>
+        <v>3.380900367509711</v>
       </c>
       <c r="J3" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K3" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7431779721966132</v>
+        <v>0.7446702126672138</v>
       </c>
       <c r="M3" t="n">
-        <v>11.18554001655995</v>
+        <v>11.17256185170173</v>
       </c>
       <c r="N3" t="n">
-        <v>217.5489893842147</v>
+        <v>217.2055565227544</v>
       </c>
       <c r="O3" t="n">
-        <v>14.74954200591377</v>
+        <v>14.73789525416552</v>
       </c>
       <c r="P3" t="n">
-        <v>282.6788425693749</v>
+        <v>282.6313408509691</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15459,7 +15489,7 @@
         <v>3.604037851819112</v>
       </c>
       <c r="J4" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K4" t="n">
         <v>373</v>
@@ -15537,7 +15567,7 @@
         <v>4.40829487533327</v>
       </c>
       <c r="J5" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K5" t="n">
         <v>364</v>
@@ -15593,7 +15623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F432"/>
+  <dimension ref="A1:F433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28297,6 +28327,30 @@
         </is>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>-41.86865635619852,174.16223495382408</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>-41.8688005245827,174.16077681439194</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10241,7 +10241,9 @@
       <c r="D432" t="n">
         <v>385.8911111111111</v>
       </c>
-      <c r="E432" t="inlineStr"/>
+      <c r="E432" t="n">
+        <v>404.0066666666667</v>
+      </c>
       <c r="F432" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10263,6 +10265,72 @@
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="n">
+        <v>374.8076923076923</v>
+      </c>
+      <c r="D434" t="n">
+        <v>376.5811111111111</v>
+      </c>
+      <c r="E434" t="n">
+        <v>399.5966666666667</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="n">
+        <v>372.4776923076923</v>
+      </c>
+      <c r="D435" t="n">
+        <v>377.5288888888889</v>
+      </c>
+      <c r="E435" t="n">
+        <v>394.7233333333333</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>452.1507692307693</v>
+      </c>
+      <c r="C436" t="n">
+        <v>385.4707692307693</v>
+      </c>
+      <c r="D436" t="n">
+        <v>386.6333333333333</v>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10279,7 +10347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15157,6 +15225,36 @@
       </c>
       <c r="B487" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -15330,28 +15428,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>6.203396243790984</v>
+        <v>6.220299653329731</v>
       </c>
       <c r="J2" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5671236763889183</v>
+        <v>0.5704737665049695</v>
       </c>
       <c r="M2" t="n">
-        <v>31.7615271816885</v>
+        <v>31.77307298755828</v>
       </c>
       <c r="N2" t="n">
-        <v>1594.714163945418</v>
+        <v>1591.452896727897</v>
       </c>
       <c r="O2" t="n">
-        <v>39.93387238855528</v>
+        <v>39.89301814513282</v>
       </c>
       <c r="P2" t="n">
-        <v>267.5960800999351</v>
+        <v>267.4448179420173</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15408,28 +15506,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.380900367509711</v>
+        <v>3.392149151983344</v>
       </c>
       <c r="J3" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K3" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7446702126672138</v>
+        <v>0.7487063714890021</v>
       </c>
       <c r="M3" t="n">
-        <v>11.17256185170173</v>
+        <v>11.12290702829474</v>
       </c>
       <c r="N3" t="n">
-        <v>217.2055565227544</v>
+        <v>216.1629883189618</v>
       </c>
       <c r="O3" t="n">
-        <v>14.73789525416552</v>
+        <v>14.702482386283</v>
       </c>
       <c r="P3" t="n">
-        <v>282.6313408509691</v>
+        <v>282.5217102245929</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15486,28 +15584,28 @@
         <v>0.1566</v>
       </c>
       <c r="I4" t="n">
-        <v>3.604037851819112</v>
+        <v>3.607682283949849</v>
       </c>
       <c r="J4" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7959884998917518</v>
+        <v>0.7991491189895547</v>
       </c>
       <c r="M4" t="n">
-        <v>10.81349195851701</v>
+        <v>10.74990795495116</v>
       </c>
       <c r="N4" t="n">
-        <v>186.9712208239547</v>
+        <v>185.6762204401823</v>
       </c>
       <c r="O4" t="n">
-        <v>13.67374201979673</v>
+        <v>13.62630619207503</v>
       </c>
       <c r="P4" t="n">
-        <v>284.4959721031896</v>
+        <v>284.4610631015153</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15564,28 +15662,28 @@
         <v>0.0895</v>
       </c>
       <c r="I5" t="n">
-        <v>4.40829487533327</v>
+        <v>4.393245234149917</v>
       </c>
       <c r="J5" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6648707459444896</v>
+        <v>0.6672338257471027</v>
       </c>
       <c r="M5" t="n">
-        <v>18.28875660774361</v>
+        <v>18.18180748848183</v>
       </c>
       <c r="N5" t="n">
-        <v>545.3047738255276</v>
+        <v>541.649674237871</v>
       </c>
       <c r="O5" t="n">
-        <v>23.35176168569574</v>
+        <v>23.27336834748832</v>
       </c>
       <c r="P5" t="n">
-        <v>294.5667582616113</v>
+        <v>294.7110138763904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15623,7 +15721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28320,7 +28418,11 @@
           <t>-41.86938968999798,174.16062810834094</t>
         </is>
       </c>
-      <c r="E432" t="inlineStr"/>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-41.87003353255967,174.16076380971836</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr">
         <is>
           <t>L8</t>
@@ -28346,6 +28448,90 @@
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>-41.86878526422848,174.16072593666607</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>-41.86937471380693,174.16051773853349</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-41.870030033090906,174.16071088091977</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>-41.86877744957667,174.16069988280685</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>-41.86937623841988,174.1605289744121</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-41.87002616592463,174.16065239120286</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>-41.868548844180495,174.16196514301237</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>-41.86882102734212,174.1608451703529</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>-41.86939088394202,174.16063690736817</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10333,6 +10333,30 @@
       <c r="F436" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>456.9469230769231</v>
+      </c>
+      <c r="C437" t="n">
+        <v>374.0869230769231</v>
+      </c>
+      <c r="D437" t="n">
+        <v>387.0655555555555</v>
+      </c>
+      <c r="E437" t="n">
+        <v>404.1333333333333</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15255,6 +15279,16 @@
       </c>
       <c r="B490" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -15721,7 +15755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28537,6 +28571,38 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-41.868569163643045,174.16201613628763</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-41.86878284682115,174.16071787708597</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-41.86939157921749,174.16064203135275</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-41.87003363307314,174.16076532997116</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -15462,28 +15462,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>6.220299653329731</v>
+        <v>6.240021214199126</v>
       </c>
       <c r="J2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5704737665049695</v>
+        <v>0.5739253739644928</v>
       </c>
       <c r="M2" t="n">
-        <v>31.77307298755828</v>
+        <v>31.80233866181223</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.452896727897</v>
+        <v>1588.848279246409</v>
       </c>
       <c r="O2" t="n">
-        <v>39.89301814513282</v>
+        <v>39.86035974808065</v>
       </c>
       <c r="P2" t="n">
-        <v>267.4448179420173</v>
+        <v>267.2679033255029</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15540,28 +15540,28 @@
         <v>0.0801</v>
       </c>
       <c r="I3" t="n">
-        <v>3.392149151983344</v>
+        <v>3.393814996637966</v>
       </c>
       <c r="J3" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K3" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7487063714890021</v>
+        <v>0.7499682335717441</v>
       </c>
       <c r="M3" t="n">
-        <v>11.12290702829474</v>
+        <v>11.09969849275215</v>
       </c>
       <c r="N3" t="n">
-        <v>216.1629883189618</v>
+        <v>215.6338180037565</v>
       </c>
       <c r="O3" t="n">
-        <v>14.702482386283</v>
+        <v>14.68447540785017</v>
       </c>
       <c r="P3" t="n">
-        <v>282.5217102245929</v>
+        <v>282.505413315581</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15618,28 +15618,28 @@
         <v>0.1566</v>
       </c>
       <c r="I4" t="n">
-        <v>3.607682283949849</v>
+        <v>3.61230753419967</v>
       </c>
       <c r="J4" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K4" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7991491189895547</v>
+        <v>0.8003779147410701</v>
       </c>
       <c r="M4" t="n">
-        <v>10.74990795495116</v>
+        <v>10.73838780439566</v>
       </c>
       <c r="N4" t="n">
-        <v>185.6762204401823</v>
+        <v>185.3805094782651</v>
       </c>
       <c r="O4" t="n">
-        <v>13.62630619207503</v>
+        <v>13.61545113017799</v>
       </c>
       <c r="P4" t="n">
-        <v>284.4610631015153</v>
+        <v>284.4166589104175</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15696,28 +15696,28 @@
         <v>0.0895</v>
       </c>
       <c r="I5" t="n">
-        <v>4.393245234149917</v>
+        <v>4.390491994495899</v>
       </c>
       <c r="J5" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K5" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6672338257471027</v>
+        <v>0.6683409735904337</v>
       </c>
       <c r="M5" t="n">
-        <v>18.18180748848183</v>
+        <v>18.14001416009087</v>
       </c>
       <c r="N5" t="n">
-        <v>541.649674237871</v>
+        <v>540.2448106623979</v>
       </c>
       <c r="O5" t="n">
-        <v>23.27336834748832</v>
+        <v>23.24316696714107</v>
       </c>
       <c r="P5" t="n">
-        <v>294.7110138763904</v>
+        <v>294.7375774456177</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0375/nzd0375.xlsx
+++ b/data/nzd0375/nzd0375.xlsx
@@ -15453,13 +15453,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0535</v>
+        <v>0.0315</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0883</v>
       </c>
       <c r="I2" t="n">
         <v>6.240033503453997</v>
@@ -15531,13 +15531,13 @@
         <v>0.3362261596069206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0548</v>
+        <v>0.0809</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0801</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>3.393825448922351</v>
@@ -15609,13 +15609,13 @@
         <v>0.666883120109089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0649</v>
+        <v>0.065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1566</v>
+        <v>0.1303</v>
       </c>
       <c r="I4" t="n">
         <v>3.612336541295375</v>
@@ -15687,13 +15687,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0476</v>
+        <v>0.039</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0895</v>
+        <v>0.0721</v>
       </c>
       <c r="I5" t="n">
         <v>4.39050535274436</v>
